--- a/pred_ohlcv/54_21/2019-11-02 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 PPT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-17881.9958</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-17881.9958</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-17946.5468</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-17759.1835</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-19493.64106635</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-19111.33326635</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1585.163202449998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7682.387797550002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7313.798297550002</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-10254.62899755</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-10048.76959755</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5653.591897550003</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-6196.386997550003</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-6196.386997550003</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-7107.825097550003</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1647.561297550003</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1647.561297550003</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3292.351497550003</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3292.351497550003</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4056.434697550003</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3056.434697550003</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2046.222597550003</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2272.257497550003</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2599.845297550003</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-11812.76539755</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-11812.76539755</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-11812.76539755</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-18531.12639755</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-18233.62459755</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-17142.09909755</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-18392.07229755</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-18380.64079755</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-18549.82079755</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-16857.55659755</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-16857.55659755</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>8826.152108089998</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>8984.059912929999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>14143.10841293</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>13934.92841293</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>12837.78841293</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>12997.04188426</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>12997.04188426</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>12019.20528426</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>12019.20528426</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>12020.20528426</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>11210.58398426</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>11396.11938426</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>11310.46308426</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>11310.46308426</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>12303.56308426</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>7774.022484259996</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>7804.022484259996</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2657.871584259997</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2657.871584259997</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3985.598215740003</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 PPT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-17881.9958</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-17881.9958</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-17946.5468</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-18600.3725</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-17757.9944</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-17759.1835</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-19111.33326635</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-19111.33326635</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1585.163202449998</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7682.387797550002</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7313.798297550002</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-10254.62899755</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-10048.76959755</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5653.591897550003</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-6196.386997550003</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-6196.386997550003</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-7107.825097550003</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1647.561297550003</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1647.561297550003</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3292.351497550003</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3292.351497550003</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4056.434697550003</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3056.434697550003</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2046.222597550003</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2272.257497550003</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2599.845297550003</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-11812.76539755</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-11812.76539755</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-11812.76539755</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-18531.12639755</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-18233.62459755</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-17142.09909755</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-18392.07229755</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-18380.64079755</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-18549.82079755</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-16857.55659755</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-16857.55659755</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>8984.059912929999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>14143.10841293</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>13934.92841293</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>12837.78841293</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>12997.04188426</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>12997.04188426</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>12019.20528426</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>11210.58398426</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>11396.11938426</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>11310.46308426</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>11310.46308426</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>12303.56308426</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>7774.022484259996</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>7804.022484259996</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2657.871584259997</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
